--- a/public/data/BaoCaoTiepXuc.xlsx
+++ b/public/data/BaoCaoTiepXuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\FileImportMau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF69336-BE50-4CAC-A56D-4732305751CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45547A-C528-4542-BDEA-73382678B8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Họ và tên:</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>BÁO CÁO TIẾP XÚC</t>
+  </si>
+  <si>
+    <t>Thời gian tiếp xúc</t>
+  </si>
+  <si>
+    <t>Doanh thu dự kiến</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +223,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,29 +740,33 @@
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="42.5703125" customWidth="1"/>
     <col min="9" max="9" width="35.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,8 +780,10 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -782,11 +797,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="48.75" customHeight="1">
+    <row r="6" spans="1:12" ht="48.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -814,11 +831,17 @@
       <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5">
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -831,8 +854,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -845,8 +870,10 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -859,8 +886,10 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -873,8 +902,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -887,8 +918,10 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -901,8 +934,10 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -915,8 +950,10 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -929,8 +966,10 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -943,8 +982,10 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -957,8 +998,10 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -971,8 +1014,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -985,8 +1030,10 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -999,8 +1046,10 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1013,8 +1062,10 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1027,8 +1078,10 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1041,8 +1094,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1055,8 +1110,10 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1069,8 +1126,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1083,8 +1142,10 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1097,8 +1158,10 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1111,8 +1174,10 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1125,8 +1190,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1139,8 +1206,10 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5">
       <c r="H32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1221,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1163,7 +1232,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$4:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I7:I1048576</xm:sqref>
+          <xm:sqref>I7:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
